--- a/Input/39ESdata_QuestionnaireData.xlsx
+++ b/Input/39ESdata_QuestionnaireData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\Documents\MATLAB\Granularity\Input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\Documents\MATLAB\Network_Granularity\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A166E69-B4D4-4E10-9242-A935D9DE6716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11260"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -64,11 +65,14 @@
   <si>
     <t>SWLS</t>
   </si>
+  <si>
+    <t>Age</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,332 +384,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>42</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>10.71</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5.57</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.14</v>
       </c>
-      <c r="I2">
-        <v>19</v>
-      </c>
       <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>58</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
       <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10.14</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.43</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.71</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>52</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.71</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.71</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>50</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>24</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.57</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>4.57</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6">
         <v>53</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6.7099999999999991</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.57</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>57</v>
       </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10.57</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.71</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5.86</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="M7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8.2799999999999994</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.57</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.71</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -714,945 +740,1014 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>56</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8.43</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3.86</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.57</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>21</v>
+      </c>
+      <c r="C10">
         <v>38</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9.85</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4.71</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.14</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>17</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
       <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>46</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>19</v>
-      </c>
       <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
         <v>11.86</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.57</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.29</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>24</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="C12">
         <v>39</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>10.29</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.43</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
       <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <v>19</v>
+      </c>
+      <c r="C13">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12.14</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.14</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>19</v>
+      </c>
+      <c r="C14">
         <v>38</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
       <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12.14</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.71</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6.43</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>12</v>
       </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
       <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
       <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
+        <v>20</v>
+      </c>
+      <c r="C15">
         <v>48</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>21</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6.29</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>3.29</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>42</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5.14</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
       <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
         <v>9</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
       <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>56</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>21</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6.8599999999999994</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3.29</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.57</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>42</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>11</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
       <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
         <v>11.58</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5.29</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6.29</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>9</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>11</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>13</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6.86</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6.14</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>12</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
       <c r="L20">
         <v>2</v>
       </c>
       <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21">
         <v>43</v>
       </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
       <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
         <v>13</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>11.280000000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4.71</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6.57</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>8</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22">
         <v>38</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8.14</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.57</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4.57</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
       <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23">
         <v>37</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>12</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10.86</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5.86</v>
       </c>
-      <c r="I23">
-        <v>18</v>
-      </c>
       <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="K23">
         <v>13</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24">
         <v>43</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>13</v>
       </c>
-      <c r="E24">
-        <v>18</v>
-      </c>
       <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
         <v>9.57</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5.57</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
+        <v>18</v>
+      </c>
+      <c r="C25">
         <v>41</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
       <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>11.43</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.86</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5.57</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
       <c r="L25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26">
         <v>61</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>12</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>24</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7.14</v>
       </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
       <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
+        <v>18</v>
+      </c>
+      <c r="C27">
         <v>38</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>12</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>11</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>9.85</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5.14</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4.71</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
       <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
+        <v>19</v>
+      </c>
+      <c r="C28">
         <v>59</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>20</v>
       </c>
-      <c r="D28">
-        <v>19</v>
-      </c>
       <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7.15</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4.29</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.86</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>13</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>7</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>6</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
+        <v>18</v>
+      </c>
+      <c r="C29">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
         <v>9.14</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>22</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>10</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>12</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>9</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
+        <v>18</v>
+      </c>
+      <c r="C30">
         <v>43</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>11</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>20</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>9.43</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5.29</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
       <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
+        <v>22</v>
+      </c>
+      <c r="C31">
         <v>29</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
         <v>15</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13.14</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6.14</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>4</v>
       </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
       <c r="K31">
         <v>2</v>
       </c>
@@ -1660,118 +1755,127 @@
         <v>2</v>
       </c>
       <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
+        <v>18</v>
+      </c>
+      <c r="C32">
         <v>36</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>13</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>11</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>14</v>
-      </c>
-      <c r="G32">
-        <v>7</v>
       </c>
       <c r="H32">
         <v>7</v>
       </c>
       <c r="I32">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J32">
+        <v>19</v>
+      </c>
+      <c r="K32">
         <v>13</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>13</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
+        <v>21</v>
+      </c>
+      <c r="C33">
         <v>60</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>26</v>
       </c>
-      <c r="E33">
-        <v>18</v>
-      </c>
       <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
       <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
         <v>4</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
         <v>7</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>11</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>15</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>11.86</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>5.86</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1780,162 +1884,174 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
+        <v>23</v>
+      </c>
+      <c r="C35">
         <v>64</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>21</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>28</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>8.86</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.86</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>6</v>
       </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>5</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
+        <v>19</v>
+      </c>
+      <c r="C36">
         <v>46</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>12</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>24</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8.43</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.86</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.57</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>8</v>
       </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
       <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
         <v>6</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
+        <v>22</v>
+      </c>
+      <c r="C37">
         <v>42</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>12</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>11</v>
       </c>
-      <c r="E37">
-        <v>19</v>
-      </c>
       <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="G37">
         <v>9.57</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5.57</v>
       </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
         <v>1</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>7</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
+        <v>18</v>
+      </c>
+      <c r="C38">
         <v>59</v>
       </c>
-      <c r="C38">
-        <v>18</v>
-      </c>
       <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
         <v>15</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>26</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>7.71</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>4</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>3.71</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1944,39 +2060,42 @@
         <v>0</v>
       </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>7</v>
       </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
+        <v>18</v>
+      </c>
+      <c r="C39">
         <v>27</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>8</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>13</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>12.43</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>6.43</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>6</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1985,1064 +2104,1142 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
+        <v>18</v>
+      </c>
+      <c r="C40">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>16</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>13</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>10.43</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>4.29</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>6.14</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>6</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>5</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>4</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
+        <v>20</v>
+      </c>
+      <c r="C41">
         <v>41</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>11</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>20</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6.58</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2.29</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4.29</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>11</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
       <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
         <v>1</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
+        <v>19</v>
+      </c>
+      <c r="C42">
         <v>58</v>
       </c>
-      <c r="C42">
-        <v>18</v>
-      </c>
       <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
         <v>22</v>
       </c>
-      <c r="E42">
-        <v>18</v>
-      </c>
       <c r="F42">
+        <v>18</v>
+      </c>
+      <c r="G42">
         <v>8.86</v>
       </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>5.86</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>9</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
       <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
         <v>12</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+      <c r="C43">
         <v>48</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>13</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>16</v>
       </c>
-      <c r="E43">
-        <v>19</v>
-      </c>
       <c r="F43">
+        <v>19</v>
+      </c>
+      <c r="G43">
         <v>9.86</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>3.86</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>6</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>11</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>4</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>7</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>10</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
+        <v>20</v>
+      </c>
+      <c r="C44">
         <v>53</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>14</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>24</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>15</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>10.72</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.86</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>6.86</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>12</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>11</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>1</v>
       </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
       <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
+        <v>19</v>
+      </c>
+      <c r="C45">
         <v>48</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>12</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>20</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>16</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>10.43</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.57</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>12</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>5</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>7</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>8</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
+        <v>19</v>
+      </c>
+      <c r="C46">
         <v>55</v>
       </c>
-      <c r="C46">
-        <v>18</v>
-      </c>
       <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
         <v>17</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>20</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>8.14</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>4</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
       <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
         <v>0</v>
       </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
       <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
         <v>7</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
+        <v>20</v>
+      </c>
+      <c r="C47">
         <v>47</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>17</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>18</v>
-      </c>
       <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
         <v>8</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>4.29</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>3.71</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
       <c r="L47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
+        <v>18</v>
+      </c>
+      <c r="C48">
         <v>42</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>13</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>14</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>15</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>8.57</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>4.43</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>5</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1</v>
-      </c>
-      <c r="K48">
-        <v>4</v>
       </c>
       <c r="L48">
         <v>4</v>
       </c>
       <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
+        <v>21</v>
+      </c>
+      <c r="C49">
         <v>44</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>9</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>20</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>9.14</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>4.43</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>4.71</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>5</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>6</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
+        <v>18</v>
+      </c>
+      <c r="C50">
         <v>40</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>12</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>12</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>9.2899999999999991</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>3.86</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5.43</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
       <c r="L50">
         <v>2</v>
       </c>
       <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
+        <v>20</v>
+      </c>
+      <c r="C51">
         <v>41</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>10</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>20</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>11</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>9.86</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>0</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>4</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
+        <v>19</v>
+      </c>
+      <c r="C52">
         <v>36</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>10</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>12</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>10.58</v>
-      </c>
-      <c r="G52">
-        <v>5.29</v>
       </c>
       <c r="H52">
         <v>5.29</v>
       </c>
       <c r="I52">
+        <v>5.29</v>
+      </c>
+      <c r="J52">
         <v>5</v>
       </c>
-      <c r="J52">
-        <v>2</v>
-      </c>
       <c r="K52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
         <v>12</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
+        <v>21</v>
+      </c>
+      <c r="C53">
         <v>44</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>12</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>15</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>17</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>9.85</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>5.71</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>11</v>
       </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
       <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
         <v>9</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>7</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
+        <v>19</v>
+      </c>
+      <c r="C54">
         <v>52</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>13</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>11</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>28</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>8.43</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>5.43</v>
       </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>58</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
+        <v>18</v>
+      </c>
+      <c r="C55">
         <v>48</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>10</v>
       </c>
-      <c r="D55">
-        <v>18</v>
-      </c>
       <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
         <v>20</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>10.719999999999999</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>4.43</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>6.29</v>
       </c>
-      <c r="I55">
-        <v>19</v>
-      </c>
       <c r="J55">
+        <v>19</v>
+      </c>
+      <c r="K55">
         <v>9</v>
-      </c>
-      <c r="K55">
-        <v>10</v>
       </c>
       <c r="L55">
         <v>10</v>
       </c>
       <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>59</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56">
         <v>26</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>11</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>10</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>8.3099999999999987</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>3.17</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>5.14</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>1</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>1</v>
       </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
       <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>61</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
+        <v>22</v>
+      </c>
+      <c r="C57">
         <v>46</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>15</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>13</v>
       </c>
-      <c r="E57">
-        <v>18</v>
-      </c>
       <c r="F57">
+        <v>18</v>
+      </c>
+      <c r="G57">
         <v>9.43</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>4.43</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>5</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>6</v>
       </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
         <v>10</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>62</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
+        <v>19</v>
+      </c>
+      <c r="C58">
         <v>50</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>15</v>
       </c>
-      <c r="D58">
-        <v>18</v>
-      </c>
       <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58">
         <v>17</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>8.7100000000000009</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>4.57</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>12</v>
       </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
       <c r="K58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L58">
         <v>10</v>
       </c>
       <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>63</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
+        <v>18</v>
+      </c>
+      <c r="C59">
         <v>65</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>16</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>27</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>22</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>9</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>4.43</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>4.57</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>14</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>8</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>6</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>17</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>64</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
+        <v>18</v>
+      </c>
+      <c r="C60">
         <v>67</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>16</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>24</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>27</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>8.67</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>4</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>4.67</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>11</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>5</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>6</v>
       </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
       <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>66</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
+        <v>21</v>
+      </c>
+      <c r="C61">
         <v>39</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>12</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>13</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>14</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>9</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>5.29</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>3.71</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>7</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>4</v>
       </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>67</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
+        <v>20</v>
+      </c>
+      <c r="C62">
         <v>51</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>13</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>12</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>26</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>8.57</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>3.57</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>5</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>13</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>7</v>
-      </c>
-      <c r="K62">
-        <v>6</v>
       </c>
       <c r="L62">
         <v>6</v>
       </c>
       <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>69</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
+        <v>18</v>
+      </c>
+      <c r="C63">
         <v>45</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>13</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>11</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>21</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>9</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3.57</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>5.43</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>70</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
+        <v>19</v>
+      </c>
+      <c r="C64">
         <v>52</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>14</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>21</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>17</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>9.86</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>4.29</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>5.57</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>15</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>4</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>11</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>13</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>71</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
+        <v>18</v>
+      </c>
+      <c r="C65">
         <v>46</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>13</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>15</v>
       </c>
-      <c r="E65">
-        <v>18</v>
-      </c>
       <c r="F65">
+        <v>18</v>
+      </c>
+      <c r="G65">
         <v>12.280000000000001</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>5.71</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>6.57</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3051,505 +3248,545 @@
         <v>0</v>
       </c>
       <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>6</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>72</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
+        <v>19</v>
+      </c>
+      <c r="C66">
         <v>53</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>16</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>23</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>14</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>6.15</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1.86</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>4.29</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>15</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>4</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>11</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>13</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>73</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
+        <v>22</v>
+      </c>
+      <c r="C67">
         <v>48</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
       </c>
       <c r="D67">
         <v>15</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F67">
+        <v>18</v>
+      </c>
+      <c r="G67">
         <v>8.69</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>2.86</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>5.83</v>
       </c>
-      <c r="I67">
-        <v>18</v>
-      </c>
       <c r="J67">
+        <v>18</v>
+      </c>
+      <c r="K67">
         <v>11</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>7</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>11</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>74</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
+        <v>20</v>
+      </c>
+      <c r="C68">
         <v>36</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>9</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>11</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>16</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>9.42</v>
-      </c>
-      <c r="G68">
-        <v>4.71</v>
       </c>
       <c r="H68">
         <v>4.71</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4.71</v>
       </c>
       <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68">
         <v>1</v>
       </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
       <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
         <v>6</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>75</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
+        <v>18</v>
+      </c>
+      <c r="C69">
         <v>50</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>17</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>13</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>20</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>6.71</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>4</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>2.71</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>1</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>5</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>76</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
+        <v>19</v>
+      </c>
+      <c r="C70">
         <v>35</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>7</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>10</v>
       </c>
-      <c r="E70">
-        <v>18</v>
-      </c>
       <c r="F70">
+        <v>18</v>
+      </c>
+      <c r="G70">
         <v>9.2100000000000009</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>4.5</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>4.71</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
         <v>0</v>
       </c>
-      <c r="K70">
-        <v>2</v>
-      </c>
       <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
         <v>4</v>
       </c>
-      <c r="M70">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>77</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
+        <v>19</v>
+      </c>
+      <c r="C71">
         <v>37</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>9</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>16</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>12</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>12.14</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>5.57</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>6.57</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>14</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>13</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>1</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>23</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>79</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
+        <v>18</v>
+      </c>
+      <c r="C72">
         <v>49</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>15</v>
       </c>
-      <c r="D72">
-        <v>19</v>
-      </c>
       <c r="E72">
+        <v>19</v>
+      </c>
+      <c r="F72">
         <v>15</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>13.57</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>6.86</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>6.71</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>6</v>
       </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
       <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
         <v>4</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>10</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>80</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
+        <v>18</v>
+      </c>
+      <c r="C73">
         <v>43</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>13</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>16</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>14</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>9.7199999999999989</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>4.29</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>5.43</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>6</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>0</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>6</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>4</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>81</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
+        <v>19</v>
+      </c>
+      <c r="C74">
         <v>43</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>11</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>13</v>
       </c>
-      <c r="E74">
-        <v>19</v>
-      </c>
       <c r="F74">
+        <v>19</v>
+      </c>
+      <c r="G74">
         <v>8.7100000000000009</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>3.14</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>5.57</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>0</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>1</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>0</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>82</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
+        <v>19</v>
+      </c>
+      <c r="C75">
         <v>20</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>5</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>7</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>8</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>12.719999999999999</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>6.43</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>6.29</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>7</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>6</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>7</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>83</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
+        <v>18</v>
+      </c>
+      <c r="C76">
         <v>42</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>14</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>15</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>13</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>12.15</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>5.29</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>6.86</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>21</v>
       </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
       <c r="K76">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L76">
+        <v>19</v>
+      </c>
+      <c r="M76">
         <v>9</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>84</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
+        <v>18</v>
+      </c>
+      <c r="C77">
         <v>65</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>22</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>26</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>17</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>5</v>
       </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
         <v>1</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>0</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>1</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>11</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>